--- a/results/summary_node_classification_GCN_brf.csv.xlsx
+++ b/results/summary_node_classification_GCN_brf.csv.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,138 +455,99 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dataset</t>
+          <t>num_iterations</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>num_iterations</t>
+          <t>avg_accuracy</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avg_accuracy</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>brf_batch_add</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>brf_batch_add</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brf_batch_remove</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cornell</t>
         </is>
       </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.4027027027027027</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4027027027027027</v>
+        <v>0.037018148471922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.037018148471922</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cornell</t>
-        </is>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0.5378378378378378</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.0393148033426338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0466558824368434</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>cornell</t>
-        </is>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5378378378378378</v>
+        <v>0.0519875244910036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0393148033426338</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cornell</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4459459459459459</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0519875244910036</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/summary_node_classification_GCN_brf.csv.xlsx
+++ b/results/summary_node_classification_GCN_brf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,38 +489,42 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>cornell</t>
+          <t>chameleon</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4027027027027027</v>
+        <v>0.6133771929824562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.037018148471922</v>
+        <v>0.0106182027485403</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>cornell</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5378378378378378</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0393148033426338</v>
+        <v>0.0490970327691485</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -529,24 +533,86 @@
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5378378378378378</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0393148033426338</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.4459459459459459</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.0519875244910036</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>60</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>texas</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4918918918918918</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0313327064782474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>wisconsin</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4921568627450979</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0250796501259913</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GCN_brf.csv.xlsx
+++ b/results/summary_node_classification_GCN_brf.csv.xlsx
@@ -576,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4918918918918918</v>
+        <v>0.5054054054054055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0313327064782474</v>
+        <v>0.0171786471157521</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4921568627450979</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0250796501259913</v>
+        <v>0.0308784622510267</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>

--- a/results/summary_node_classification_GCN_brf.csv.xlsx
+++ b/results/summary_node_classification_GCN_brf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,53 +496,53 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6133771929824562</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0106182027485403</v>
+        <v>0.0133897697565559</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cornell</t>
+          <t>citeseer</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.7393393393393393</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0490970327691485</v>
+        <v>0.0073705220212095</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5378378378378378</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0393148033426338</v>
+        <v>0.0081690513565978</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -551,68 +551,278 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.7445945945945946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0519875244910036</v>
+        <v>0.0090932002008917</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>texas</t>
+          <t>cora</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5054054054054055</v>
+        <v>0.8809963099630996</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0171786471157521</v>
+        <v>0.0081890557273697</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8811808118081179</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0086727643072605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8815498154981549</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00715144002679</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>cornell</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5054054054054054</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0229968079850623</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5459459459459459</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0340154221028157</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5378378378378378</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0393148033426338</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4459459459459459</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0519875244910036</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>texas</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5594594594594594</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0551510310948527</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5351351351351351</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0239307498607336</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0350310308022046</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>wisconsin</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0308784622510267</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C16" t="n">
+        <v>0.5156862745098039</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0332987132789863</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5352941176470588</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0242059597835466</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0264814792409947</v>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GCN_brf.csv.xlsx
+++ b/results/summary_node_classification_GCN_brf.csv.xlsx
@@ -536,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7432432432432432</v>
+        <v>0.7433933933933934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0081690513565978</v>
+        <v>0.0087185405823924</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -554,13 +554,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7445945945945946</v>
+        <v>0.7448948948948949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0090932002008917</v>
+        <v>0.0072750808019257</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
